--- a/Administratives/Zeitplanung_BA.xlsx
+++ b/Administratives/Zeitplanung_BA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NTB\BA\OpenSourceJourneyPlanner\Administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED814EA7-18F5-46CA-B407-35AE3CA42C76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{A66CC244-F7B9-4555-97EB-3609311084C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan_FT_Soll" sheetId="1" r:id="rId1"/>
-    <sheet name="Zeitplan_FT_Ist" sheetId="2" r:id="rId2"/>
-    <sheet name="Zeitplan_CB_Soll" sheetId="3" r:id="rId3"/>
+    <sheet name="Zeitplan_CB_Soll" sheetId="3" r:id="rId2"/>
+    <sheet name="Zeitplan_FT_Ist" sheetId="2" r:id="rId3"/>
     <sheet name="Zeitplan_CB_Ist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -644,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -758,10 +759,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,17 +786,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="135"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25339E2F-6D8E-4CA6-B1E0-24A1BA089492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
@@ -1113,37 +1117,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -2023,11 +2027,916 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1D063A-1751-49A9-9E10-8E8906F6809D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C5+C6+C8+C10+C12+C13+C14+C16+C17</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:AC3" si="0">D5+D6+D8+D10+D12+D13+D14+D16+D17</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>Y5+Y6+Y8+Y10+Y12+Y13+Y14+Y16+Y17</f>
+        <v>32</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>Z5+Z6+Z8+Z10+Z12+Z13+Z14+Z16+Z17</f>
+        <v>32</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
+        <f>B5+B6+B8+B10+B12+B13+B14+B16+B17</f>
+        <v>372</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="36"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
+        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5+AC5</f>
+        <v>109</v>
+      </c>
+      <c r="C5" s="40">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="41">
+        <v>2</v>
+      </c>
+      <c r="J5" s="41">
+        <v>2</v>
+      </c>
+      <c r="K5" s="41">
+        <v>2</v>
+      </c>
+      <c r="L5" s="41">
+        <v>2</v>
+      </c>
+      <c r="M5" s="41">
+        <v>2</v>
+      </c>
+      <c r="N5" s="41">
+        <v>2</v>
+      </c>
+      <c r="O5" s="41">
+        <v>2</v>
+      </c>
+      <c r="P5" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>2</v>
+      </c>
+      <c r="R5" s="41">
+        <v>2</v>
+      </c>
+      <c r="S5" s="41">
+        <v>2</v>
+      </c>
+      <c r="T5" s="41">
+        <v>2</v>
+      </c>
+      <c r="U5" s="41">
+        <v>2</v>
+      </c>
+      <c r="V5" s="41">
+        <v>2</v>
+      </c>
+      <c r="W5" s="41">
+        <v>2</v>
+      </c>
+      <c r="X5" s="41">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="41">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
+        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6+Z6+AA6+AB6+AC6</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="40">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="18"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <f t="shared" ref="B8:B17" si="1">C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8+Z8+AA8+AB8+AC8</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="40">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="18"/>
+    </row>
+    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="18"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="41">
+        <v>10</v>
+      </c>
+      <c r="J10" s="41">
+        <v>10</v>
+      </c>
+      <c r="K10" s="41">
+        <v>10</v>
+      </c>
+      <c r="L10" s="41">
+        <v>10</v>
+      </c>
+      <c r="M10" s="41">
+        <v>10</v>
+      </c>
+      <c r="N10" s="41">
+        <v>10</v>
+      </c>
+      <c r="O10" s="41">
+        <v>10</v>
+      </c>
+      <c r="P10" s="41">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>10</v>
+      </c>
+      <c r="R10" s="41">
+        <v>10</v>
+      </c>
+      <c r="S10" s="41">
+        <v>10</v>
+      </c>
+      <c r="T10" s="41">
+        <v>10</v>
+      </c>
+      <c r="U10" s="41">
+        <v>10</v>
+      </c>
+      <c r="V10" s="42">
+        <v>5</v>
+      </c>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="18"/>
+    </row>
+    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="42">
+        <v>5</v>
+      </c>
+      <c r="W12" s="42">
+        <v>10</v>
+      </c>
+      <c r="X12" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="18"/>
+    </row>
+    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10">
+        <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13+R13+S13+T13+U13+V13+W13+X13+Y13+Z13+AA13+AB13+AC13</f>
+        <v>22</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="41">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="42">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="18"/>
+    </row>
+    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="42">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="42">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="18"/>
+    </row>
+    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="42">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="42">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="18"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="42">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="18"/>
+    </row>
+    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="18"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="38"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11">
+        <f>B4</f>
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,37 +2947,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="51"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -2198,19 +3107,19 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="0"/>
@@ -2279,7 +3188,7 @@
       </c>
       <c r="B4" s="9">
         <f>B5+B6+B8+B10+B12+B13+B14+B16+B17</f>
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
@@ -2315,7 +3224,7 @@
       </c>
       <c r="B5" s="10">
         <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5+AC5</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="40">
         <v>1</v>
@@ -2330,9 +3239,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="52">
+        <v>5</v>
+      </c>
       <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="52">
+        <v>3</v>
+      </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -2355,7 +3268,7 @@
       </c>
       <c r="B6" s="10">
         <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6+Z6+AA6+AB6+AC6</f>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C6" s="40">
         <v>16</v>
@@ -2371,8 +3284,12 @@
       <c r="J6" s="41">
         <v>6</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="52">
+        <v>6</v>
+      </c>
+      <c r="L6" s="52">
+        <v>7</v>
+      </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
@@ -2430,7 +3347,7 @@
       </c>
       <c r="B8" s="10">
         <f t="shared" ref="B8:B17" si="1">C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8+Z8+AA8+AB8+AC8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="17"/>
@@ -2442,7 +3359,9 @@
       <c r="J8" s="41">
         <v>2</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="52">
+        <v>1</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -2474,7 +3393,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="32"/>
@@ -2501,7 +3420,7 @@
       </c>
       <c r="B10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="17"/>
@@ -2512,9 +3431,15 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="L10" s="52">
+        <v>2</v>
+      </c>
+      <c r="M10" s="52">
+        <v>9</v>
+      </c>
+      <c r="N10" s="52">
+        <v>10</v>
+      </c>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -2849,7 +3774,7 @@
       </c>
       <c r="B20" s="11">
         <f>B4</f>
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2861,917 +3786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469A3CF1-99E7-40C8-B132-6A0C415BDF8F}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC19" sqref="A3:AC19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="10" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <f>C5+C6+C8+C10+C12+C13+C14+C16+C17</f>
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:AC3" si="0">D5+D6+D8+D10+D12+D13+D14+D16+D17</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="R3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="X3" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>Y5+Y6+Y8+Y10+Y12+Y13+Y14+Y16+Y17</f>
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2">
-        <f>Z5+Z6+Z8+Z10+Z12+Z13+Z14+Z16+Z17</f>
-        <v>32</v>
-      </c>
-      <c r="AA3" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="AB3" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="AC3" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <f>B5+B6+B8+B10+B12+B13+B14+B16+B17</f>
-        <v>372</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="36"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
-        <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5+AC5</f>
-        <v>109</v>
-      </c>
-      <c r="C5" s="40">
-        <v>6</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="41">
-        <v>2</v>
-      </c>
-      <c r="J5" s="41">
-        <v>2</v>
-      </c>
-      <c r="K5" s="41">
-        <v>2</v>
-      </c>
-      <c r="L5" s="41">
-        <v>2</v>
-      </c>
-      <c r="M5" s="41">
-        <v>2</v>
-      </c>
-      <c r="N5" s="41">
-        <v>2</v>
-      </c>
-      <c r="O5" s="41">
-        <v>2</v>
-      </c>
-      <c r="P5" s="41">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="41">
-        <v>2</v>
-      </c>
-      <c r="R5" s="41">
-        <v>2</v>
-      </c>
-      <c r="S5" s="41">
-        <v>2</v>
-      </c>
-      <c r="T5" s="41">
-        <v>2</v>
-      </c>
-      <c r="U5" s="41">
-        <v>2</v>
-      </c>
-      <c r="V5" s="41">
-        <v>2</v>
-      </c>
-      <c r="W5" s="41">
-        <v>2</v>
-      </c>
-      <c r="X5" s="41">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="41">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>16</v>
-      </c>
-      <c r="AB5" s="41">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10">
-        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+R6+S6+T6+U6+V6+W6+X6+Y6+Z6+AA6+AB6+AC6</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="40">
-        <v>10</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="18"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="18"/>
-    </row>
-    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10">
-        <f t="shared" ref="B8:B17" si="1">C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+S8+T8+U8+V8+W8+X8+Y8+Z8+AA8+AB8+AC8</f>
-        <v>4</v>
-      </c>
-      <c r="C8" s="40">
-        <v>4</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="18"/>
-    </row>
-    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="18"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="41">
-        <v>10</v>
-      </c>
-      <c r="J10" s="41">
-        <v>10</v>
-      </c>
-      <c r="K10" s="41">
-        <v>10</v>
-      </c>
-      <c r="L10" s="41">
-        <v>10</v>
-      </c>
-      <c r="M10" s="41">
-        <v>10</v>
-      </c>
-      <c r="N10" s="41">
-        <v>10</v>
-      </c>
-      <c r="O10" s="41">
-        <v>10</v>
-      </c>
-      <c r="P10" s="41">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="41">
-        <v>10</v>
-      </c>
-      <c r="R10" s="41">
-        <v>10</v>
-      </c>
-      <c r="S10" s="41">
-        <v>10</v>
-      </c>
-      <c r="T10" s="41">
-        <v>10</v>
-      </c>
-      <c r="U10" s="41">
-        <v>10</v>
-      </c>
-      <c r="V10" s="42">
-        <v>5</v>
-      </c>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="18"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="18"/>
-    </row>
-    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="42">
-        <v>5</v>
-      </c>
-      <c r="W12" s="42">
-        <v>10</v>
-      </c>
-      <c r="X12" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="42">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="18"/>
-    </row>
-    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10">
-        <f>C13+D13+E13+F13+G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13+R13+S13+T13+U13+V13+W13+X13+Y13+Z13+AA13+AB13+AC13</f>
-        <v>22</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="41">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="42">
-        <v>12</v>
-      </c>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="18"/>
-    </row>
-    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="42">
-        <v>18</v>
-      </c>
-      <c r="AA14" s="42">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="18"/>
-    </row>
-    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="18"/>
-    </row>
-    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="10">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="42">
-        <v>14</v>
-      </c>
-      <c r="AB16" s="42">
-        <v>8</v>
-      </c>
-      <c r="AC16" s="18"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="42">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="18"/>
-    </row>
-    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="18"/>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="38"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11">
-        <f>B4</f>
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3033547-3454-487C-8668-F6838D35A31C}">
-  <dimension ref="A1:AC20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AC19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,18 +3802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
